--- a/frontend/taken.xlsx
+++ b/frontend/taken.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="357">
   <si>
     <t>Naam van taak.</t>
   </si>
@@ -165,6 +165,9 @@
     <t>6. CONTENT GOEDKEURING (METRICOOL)</t>
   </si>
   <si>
+    <t>Sharon Swart</t>
+  </si>
+  <si>
     <t>GROEISTRATEGIE UITDENKEN SMM</t>
   </si>
   <si>
@@ -246,9 +249,6 @@
     <t>ONBOARDING SMM KLANTPROCES</t>
   </si>
   <si>
-    <t>Sharon Swart</t>
-  </si>
-  <si>
     <t>7. CONTENT GOEDKEURING (METRICOOL)</t>
   </si>
   <si>
@@ -1102,6 +1102,12 @@
   </si>
   <si>
     <t>REVIEWS BACKPACKERS.NL</t>
+  </si>
+  <si>
+    <t>BB Assurantie Service</t>
+  </si>
+  <si>
+    <t>4. CONTENT SHOOT - AANLEVERING (DATUM)</t>
   </si>
   <si>
     <t>Contact pagina aanpassen</t>
@@ -1655,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -1675,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1695,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>110</v>
@@ -1709,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1726,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -1743,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -1794,7 +1800,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -1822,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1884,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
@@ -1901,7 +1907,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -1921,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -1955,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1989,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>125</v>
@@ -2023,7 +2029,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
@@ -2040,7 +2046,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2054,7 +2060,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
@@ -2114,7 +2120,7 @@
         <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2128,7 +2134,7 @@
         <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2156,7 +2162,7 @@
         <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -2170,7 +2176,7 @@
         <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -2184,7 +2190,7 @@
         <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2361,7 +2367,7 @@
         <v>247</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>306</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
@@ -2375,7 +2381,7 @@
         <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
@@ -2530,7 +2536,7 @@
         <v>336</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
         <v>33</v>
@@ -2659,7 +2665,7 @@
         <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>73</v>
@@ -2687,7 +2693,7 @@
         <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -2726,7 +2732,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -2738,7 +2744,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2746,7 +2752,7 @@
         <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
@@ -2760,7 +2766,7 @@
         <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
@@ -2788,10 +2794,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -2803,7 +2809,7 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2814,13 +2820,13 @@
         <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2831,30 +2837,30 @@
         <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2865,30 +2871,30 @@
         <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2958,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>125</v>
@@ -2972,7 +2978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>125</v>
@@ -3003,7 +3009,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>125</v>
@@ -3017,7 +3023,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>125</v>
@@ -3066,7 +3072,7 @@
         <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3077,7 +3083,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>125</v>
@@ -3150,7 +3156,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3172,203 +3178,262 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>353</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>67</v>
+      <c r="F12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
         <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3488,10 +3553,13 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3505,7 +3573,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -3547,10 +3615,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -3561,13 +3629,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -3578,10 +3646,10 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
@@ -3592,7 +3660,7 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -3603,10 +3671,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -3615,15 +3683,15 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -3634,13 +3702,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -3651,7 +3719,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -3665,7 +3733,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -3690,13 +3758,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
@@ -3710,7 +3778,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -3724,7 +3792,7 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -3735,10 +3803,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -3747,15 +3815,15 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -3766,10 +3834,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -3780,10 +3848,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
@@ -3794,13 +3862,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
@@ -3808,13 +3876,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
         <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -3825,16 +3893,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3842,10 +3910,10 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>32</v>
@@ -3856,7 +3924,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -3867,10 +3935,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -3881,7 +3949,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -3895,10 +3963,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -3909,13 +3977,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
         <v>65</v>
       </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
@@ -3923,10 +3991,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -3938,7 +4006,7 @@
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4036,7 +4104,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>71</v>
@@ -4064,7 +4132,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>71</v>
@@ -4419,7 +4487,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4453,7 +4521,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -4481,7 +4549,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -4493,7 +4561,7 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4577,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
@@ -4625,7 +4693,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>125</v>
@@ -4645,7 +4713,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
@@ -4671,7 +4739,7 @@
         <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4682,7 +4750,7 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
@@ -4699,7 +4767,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
@@ -4773,7 +4841,7 @@
         <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -4784,10 +4852,10 @@
         <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -4818,7 +4886,7 @@
         <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -4869,7 +4937,7 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
@@ -4877,13 +4945,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
         <v>31</v>
@@ -4945,7 +5013,7 @@
         <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
@@ -4959,7 +5027,7 @@
         <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
@@ -4987,7 +5055,7 @@
         <v>151</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
         <v>31</v>
@@ -5015,7 +5083,7 @@
         <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
         <v>31</v>
@@ -5026,7 +5094,7 @@
         <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
         <v>118</v>
@@ -5054,7 +5122,7 @@
         <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
         <v>116</v>
@@ -5068,7 +5136,7 @@
         <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
         <v>116</v>
@@ -5082,10 +5150,10 @@
         <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
         <v>31</v>
@@ -5096,10 +5164,10 @@
         <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
         <v>31</v>
@@ -5175,7 +5243,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
@@ -5215,7 +5283,7 @@
         <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5268,13 +5336,13 @@
         <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5347,7 +5415,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5361,7 +5429,7 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5378,7 +5446,7 @@
         <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5386,21 +5454,21 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -5409,7 +5477,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5417,16 +5485,16 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5465,15 +5533,15 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -5482,12 +5550,12 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -5499,7 +5567,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5513,7 +5581,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5524,10 +5592,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5541,7 +5609,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5549,13 +5617,13 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5566,15 +5634,15 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -5583,12 +5651,12 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -5597,10 +5665,10 @@
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5617,12 +5685,12 @@
         <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -5634,12 +5702,12 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -5648,7 +5716,7 @@
         <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5659,10 +5727,10 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5673,10 +5741,10 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5684,21 +5752,21 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -5707,7 +5775,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5715,13 +5783,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5732,10 +5800,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5749,7 +5817,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5788,7 +5856,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5948,7 +6016,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -5979,7 +6047,7 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -6019,10 +6087,10 @@
         <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -6036,7 +6104,7 @@
         <v>194</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>118</v>
@@ -6087,7 +6155,7 @@
         <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
         <v>118</v>
@@ -6112,13 +6180,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
         <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -6222,7 +6290,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -6239,7 +6307,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -6262,7 +6330,7 @@
         <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>98</v>
@@ -6276,7 +6344,7 @@
         <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>98</v>
@@ -6290,7 +6358,7 @@
         <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>98</v>
@@ -6304,7 +6372,7 @@
         <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
@@ -6318,7 +6386,7 @@
         <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>98</v>
@@ -6332,7 +6400,7 @@
         <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>98</v>
@@ -6346,7 +6414,7 @@
         <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -6388,7 +6456,7 @@
         <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>98</v>
@@ -6402,7 +6470,7 @@
         <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>98</v>
@@ -6503,7 +6571,7 @@
         <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>98</v>
@@ -6517,7 +6585,7 @@
         <v>215</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>98</v>
@@ -6601,7 +6669,7 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>98</v>
@@ -6615,7 +6683,7 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
         <v>98</v>
@@ -6786,7 +6854,7 @@
         <v>245</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
         <v>98</v>
@@ -6926,7 +6994,7 @@
         <v>250</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
         <v>98</v>
@@ -6982,7 +7050,7 @@
         <v>250</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
         <v>98</v>
@@ -6996,7 +7064,7 @@
         <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D59" t="s">
         <v>98</v>
@@ -7080,7 +7148,7 @@
         <v>272</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D65" t="s">
         <v>98</v>
@@ -7150,7 +7218,7 @@
         <v>278</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D70" t="s">
         <v>98</v>
@@ -7164,7 +7232,7 @@
         <v>284</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D71" t="s">
         <v>98</v>
@@ -7178,7 +7246,7 @@
         <v>284</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D72" t="s">
         <v>98</v>
@@ -7192,7 +7260,7 @@
         <v>284</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D73" t="s">
         <v>98</v>
@@ -7206,7 +7274,7 @@
         <v>284</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D74" t="s">
         <v>98</v>
@@ -7220,7 +7288,7 @@
         <v>284</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D75" t="s">
         <v>98</v>
@@ -7240,7 +7308,7 @@
         <v>98</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -7341,7 +7409,7 @@
         <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
         <v>98</v>

--- a/frontend/taken.xlsx
+++ b/frontend/taken.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="330">
   <si>
     <t>Naam van taak.</t>
   </si>
@@ -62,21 +62,24 @@
     <t>Xafax</t>
   </si>
   <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>Amber Schouten</t>
+  </si>
+  <si>
+    <t>Alec van der Schuit</t>
+  </si>
+  <si>
+    <t>Sharon Swart</t>
+  </si>
+  <si>
+    <t>Leadinfo autopilot advies</t>
+  </si>
+  <si>
     <t>2024-09-18</t>
   </si>
   <si>
-    <t>Amber Schouten</t>
-  </si>
-  <si>
-    <t>Alec van der Schuit</t>
-  </si>
-  <si>
-    <t>Sharon Swart</t>
-  </si>
-  <si>
-    <t>Leadinfo autopilot advies</t>
-  </si>
-  <si>
     <t>Linkedin nieuwsbrief YS</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
     <t>2024-12-11</t>
   </si>
   <si>
-    <t>2024-09-16</t>
-  </si>
-  <si>
     <t>LINKEDIN KENNIS EN PROCES</t>
   </si>
   <si>
@@ -152,880 +152,868 @@
     <t>2024-09-27</t>
   </si>
   <si>
+    <t>Pinoccio</t>
+  </si>
+  <si>
+    <t>De Jong Reclame</t>
+  </si>
+  <si>
+    <t>Julia van Kalken</t>
+  </si>
+  <si>
+    <t>Techosol</t>
+  </si>
+  <si>
+    <t>Massage-O-Matic</t>
+  </si>
+  <si>
+    <t>Thijmen Buurs</t>
+  </si>
+  <si>
+    <t>AANGESLOTEN WINKELS EN BEDRIJVEN IN KAART</t>
+  </si>
+  <si>
+    <t>YoungSparks Social CAMPAGNE PROMOTIE</t>
+  </si>
+  <si>
+    <t>Ewout Vet</t>
+  </si>
+  <si>
+    <t>4. CONTENT SHOOT - AANLEVERING</t>
+  </si>
+  <si>
+    <t>5. CONTENT BEWERKING / CREATIE + INPLANNEN METRICOOL</t>
+  </si>
+  <si>
+    <t>8. MONITORING &amp; ENGAGEMENT + GROEISTRATEGIEËN TOEPASSEN</t>
+  </si>
+  <si>
+    <t>HUISSTIJL</t>
+  </si>
+  <si>
+    <t>Radisson Blu City Center</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-09-09)</t>
+  </si>
+  <si>
+    <t>Leonie van der Park</t>
+  </si>
+  <si>
+    <t>2024-09-17</t>
+  </si>
+  <si>
+    <t>SOCIAL MEDIA PLAN</t>
+  </si>
+  <si>
+    <t>MAANDMEETING:  10 OKTOBER - 10:00</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>Steijn van Buuren</t>
+  </si>
+  <si>
+    <t>LinkedIn ads buget verloopt</t>
+  </si>
+  <si>
+    <t>Uitzoeken koppelen Instagram aan Meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mailing golfmarkt - navraag nodig </t>
+  </si>
+  <si>
+    <t>ANALYSE &amp; RAPPORTAGE</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>Afbeeldingen website</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-09-06)</t>
+  </si>
+  <si>
+    <t>OPBOUWEN NIEUWE BESTANDSTRUCTUUR</t>
+  </si>
+  <si>
+    <t>Metricool werkwijze aanpassing</t>
+  </si>
+  <si>
+    <t>Miel Tiebie</t>
+  </si>
+  <si>
+    <t>LEADINFO - HUBSPOT</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-09-11)</t>
+  </si>
+  <si>
+    <t>CONTENT - MIC en DRONE</t>
+  </si>
+  <si>
+    <t>Werkinstructie onboarding social media klant</t>
+  </si>
+  <si>
+    <t>KLANTLOGO'S OP WEBSITE</t>
+  </si>
+  <si>
+    <t>CONTENT - logo kleur en outline probleem</t>
+  </si>
+  <si>
+    <t>CONTENT - Huisstijl handboek en beeldmerk ontwikkeling YoungSparks</t>
+  </si>
+  <si>
+    <t>Jim Struikenkamp</t>
+  </si>
+  <si>
+    <t>ADMIN - Enquete maken voor offboarding klanten</t>
+  </si>
+  <si>
+    <t>AI - Klantspecifieke GPT</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>Social Media bestanden ordenen | Social proces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO - DIENSTONTWIKKELING </t>
+  </si>
+  <si>
+    <t>Tijn de Ruijter</t>
+  </si>
+  <si>
+    <t>Website YoungSparks - maandelijks 2 uur</t>
+  </si>
+  <si>
+    <t>AI - Teams automatisering - ON HOLD</t>
+  </si>
+  <si>
+    <t>Morris Nijland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI OVERZICHT - ON HOLD </t>
+  </si>
+  <si>
+    <t>Grootmeesters</t>
+  </si>
+  <si>
+    <t>Julia Klaver</t>
+  </si>
+  <si>
+    <t>Campagne SROI</t>
+  </si>
+  <si>
+    <t>ICT vanaf Morgen - IVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. MEETING + OPTIMALISATIE </t>
+  </si>
+  <si>
+    <t>Social media strategie ACC</t>
+  </si>
+  <si>
+    <t>OFFBOARDING UITVOEREN</t>
+  </si>
+  <si>
+    <t>Radisson Blu Amsterdam Airport Schiphol</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>Analysis &amp; reporting Juli 2023</t>
+  </si>
+  <si>
+    <t>Ubersuggest Agent whitelisten</t>
+  </si>
+  <si>
+    <t>Gripp - sales proces in kaart brengen</t>
+  </si>
+  <si>
+    <t>CONCURRENTEN EN MARKANALYSE</t>
+  </si>
+  <si>
+    <t>Website en social analyse</t>
+  </si>
+  <si>
+    <t>Nisaba</t>
+  </si>
+  <si>
+    <t>NIEUWSBRIEF</t>
+  </si>
+  <si>
+    <t>Kolping Boys</t>
+  </si>
+  <si>
+    <t>SHOOT 2</t>
+  </si>
+  <si>
+    <t>Werknavigator | Project NAN</t>
+  </si>
+  <si>
+    <t>Website aanpak Massage-O-Matic</t>
+  </si>
+  <si>
+    <t>CONCURRENTEN</t>
+  </si>
+  <si>
+    <t>DakCenter Witex</t>
+  </si>
+  <si>
+    <t>4. CONTENT SHOOT - AANLEVERING (DATUM)</t>
+  </si>
+  <si>
+    <t>CONCURRENTEN EN MARKTANALYSE</t>
+  </si>
+  <si>
+    <t>ONBOARDING KLANTEN ADMIN</t>
+  </si>
+  <si>
+    <t>ADVERTENTIE LINKE LOETJE (krantje)</t>
+  </si>
+  <si>
+    <t>Rommers</t>
+  </si>
+  <si>
+    <t>Offerteformulier productpagina's</t>
+  </si>
+  <si>
+    <t>Website CRO UX/UI analyse</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Rommers Real Estate</t>
+  </si>
+  <si>
+    <t>Branded video - Ads &amp; Socials</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>TEMPLATES MAKEN</t>
+  </si>
+  <si>
+    <t>C.A. de Groot</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>GROEISTRATEGIE UITDENKEN SMM</t>
+  </si>
+  <si>
+    <t>Brandmovie omvormen tot korte YouTube Short / Reels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mailmarketing - X UUR </t>
+  </si>
+  <si>
+    <t>Niedorp Sportcentrum</t>
+  </si>
+  <si>
+    <t>Bedrijvenvereniging Boekelermeer</t>
+  </si>
+  <si>
+    <t>6. CONTENT GOEDKEURING (METRICOOL)</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>1. ANALYSE EN RAPPORTAGE - 1 UUR</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>4. CONTENT SHOOT (25-09-2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAANDMEETING </t>
+  </si>
+  <si>
+    <t>6. CONTENT INPLANNEN (METRICOOL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ympl omzetten naar Mailchimp </t>
+  </si>
+  <si>
+    <t>ONTWERP FYSIEKE FLYER - ICT v/h MKB - 2 UUR</t>
+  </si>
+  <si>
+    <t>EMAIL - Campagne Easysignage - VISUALS - 1.5h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campagne Easypad </t>
+  </si>
+  <si>
+    <t>PRODUCTFOLDERS OMZETTEN</t>
+  </si>
+  <si>
+    <t>KLANTVERHAAL KENNEMER DUINCAMPING - 10 UUR</t>
+  </si>
+  <si>
+    <t>KLANTVERHAAL VONK HOORN (sept)</t>
+  </si>
+  <si>
+    <t>E-BOEKHOUDEN UREN VS VERKOCHTE UREN</t>
+  </si>
+  <si>
+    <t>AI / Automation project - DGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBSITE ANALYSE - 4 UUR </t>
+  </si>
+  <si>
+    <t>NIEUWSBRIEF AANMELDING (OPTIE)</t>
+  </si>
+  <si>
+    <t>Analyse Leadinfo - klanten</t>
+  </si>
+  <si>
+    <t>OPTIMALISEREN LANDINGSPAGINA'S DE JONG - SIGN - 4 UUR</t>
+  </si>
+  <si>
+    <t>OFFBOARDEN</t>
+  </si>
+  <si>
+    <t>PHOENIX DESIGN</t>
+  </si>
+  <si>
+    <t>Blogs schrijven - SEO</t>
+  </si>
+  <si>
+    <t>Meta advertising opzetten 6 tot 8 uur</t>
+  </si>
+  <si>
+    <t>Leergeld Alkmaar</t>
+  </si>
+  <si>
+    <t>PROCES &amp; WERKINSTRUCTIES</t>
+  </si>
+  <si>
+    <t>VRAGENLIJST + TOEGANG ACCOUNTS</t>
+  </si>
+  <si>
+    <t>1. ANALYSE &amp; RAPPORTAGE</t>
+  </si>
+  <si>
+    <t>Mart Cabooter</t>
+  </si>
+  <si>
+    <t>PINTEREST</t>
+  </si>
+  <si>
+    <t>Fotoshoot website</t>
+  </si>
+  <si>
+    <t>Beschrijving update beleid Wordpress - 2 uur</t>
+  </si>
+  <si>
+    <t>E-MAILHANDTEKENING</t>
+  </si>
+  <si>
+    <t>DASHBOARD TAKEN PROJECT</t>
+  </si>
+  <si>
+    <t>Realisatie routing &amp; bucket rondom websites</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-09-02)</t>
+  </si>
+  <si>
+    <t>RALPH BELLEN: PLAN</t>
+  </si>
+  <si>
+    <t>2TH</t>
+  </si>
+  <si>
+    <t>Merchant Center</t>
+  </si>
+  <si>
+    <t>Reviews vertalen</t>
+  </si>
+  <si>
+    <t>Account Gehackt 2TH</t>
+  </si>
+  <si>
+    <t>Verkoopkanalen</t>
+  </si>
+  <si>
+    <t>CRO afrekenproces</t>
+  </si>
+  <si>
+    <t>Social template</t>
+  </si>
+  <si>
+    <t>Opmaak advertenties producten</t>
+  </si>
+  <si>
+    <t>SOCIAL MEDIA ADVERTISING</t>
+  </si>
+  <si>
+    <t>Naamplaatje.nl</t>
+  </si>
+  <si>
+    <t>Pilaster</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-09-03)</t>
+  </si>
+  <si>
+    <t>Websiteverbeteringen</t>
+  </si>
+  <si>
+    <t>AB-testen</t>
+  </si>
+  <si>
+    <t>GlucoSensor</t>
+  </si>
+  <si>
+    <t>Bezettingsgrraad</t>
+  </si>
+  <si>
+    <t>Goudkust</t>
+  </si>
+  <si>
+    <t>Review pagina</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-09-05)</t>
+  </si>
+  <si>
+    <t>Campagne traject opbouwen en opstarten exclusief klantenvoordeel</t>
+  </si>
+  <si>
+    <t>Campagne en AI routing</t>
+  </si>
+  <si>
+    <t>Cookiebanner kosten verlagen (pagina's verminderen)</t>
+  </si>
+  <si>
+    <t>Opschonen MailChimp</t>
+  </si>
+  <si>
+    <t>Diapresentatie</t>
+  </si>
+  <si>
+    <t>Last Minute pagina</t>
+  </si>
+  <si>
+    <t>Meta Ads</t>
+  </si>
+  <si>
+    <t>Stickers voor de champagne</t>
+  </si>
+  <si>
+    <t>Beeldmateriaal website</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-08-23)</t>
+  </si>
+  <si>
+    <t>Onderzoek domein Euroline.nl</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-08-31)</t>
+  </si>
+  <si>
+    <t>Offerte template</t>
+  </si>
+  <si>
+    <t>BLOGS</t>
+  </si>
+  <si>
+    <t>SHOOT OP LOCATIE PAND HHW</t>
+  </si>
+  <si>
+    <t>WERK ROUTING</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>Routing en signing Euroline</t>
+  </si>
+  <si>
+    <t>Review systeem eindgebruikers</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>NFC card voor Pieter</t>
+  </si>
+  <si>
+    <t>FAQ rariteiten</t>
+  </si>
+  <si>
+    <t>VVE beheer Amsterdam</t>
+  </si>
+  <si>
+    <t>Redirects overleg</t>
+  </si>
+  <si>
+    <t>Overstappen</t>
+  </si>
+  <si>
+    <t>Uitlegvideo's Twinq</t>
+  </si>
+  <si>
+    <t>Chatfunctie voor accountmanagers via MS365</t>
+  </si>
+  <si>
+    <t>Linkbuilding Appartement &amp; Eigenaar</t>
+  </si>
+  <si>
+    <t>RAPPORTAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedIn STRATEGIE </t>
+  </si>
+  <si>
+    <t>Cookiebanner inrichten</t>
+  </si>
+  <si>
+    <t>Bedrijfswagenland</t>
+  </si>
+  <si>
+    <t>Offerte S5</t>
+  </si>
+  <si>
+    <t>Waerderpolder Haarlem</t>
+  </si>
+  <si>
+    <t>Contacten App</t>
+  </si>
+  <si>
+    <t>Huis van het Werk</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-09-04)</t>
+  </si>
+  <si>
+    <t>Greenport NH</t>
+  </si>
+  <si>
+    <t>Energy &amp; Health Campus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brochure </t>
+  </si>
+  <si>
+    <t>Uitlegvideo mobiel</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>FAQ's toevoegen website</t>
+  </si>
+  <si>
+    <t>Tamara's Office Ondersteuning &amp; Secretariaten</t>
+  </si>
+  <si>
+    <t>De Noormannen</t>
+  </si>
+  <si>
+    <t>Bepalen welke FAQ's er standaard in een ContactenApp moeten komen te staan</t>
+  </si>
+  <si>
+    <t>Westrand</t>
+  </si>
+  <si>
+    <t>Webteksten maken</t>
+  </si>
+  <si>
+    <t>FAQ's tekstueel Dashboard Admin</t>
+  </si>
+  <si>
+    <t>FAQ's tekstueel App</t>
+  </si>
+  <si>
+    <t>Google account</t>
+  </si>
+  <si>
+    <t>BLV Overdie</t>
+  </si>
+  <si>
+    <t>Nieuwsbrief opbouwen en verzenden</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>1. SEO - Quickscan: 0-meting</t>
+  </si>
+  <si>
+    <t>MEETINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climatecoating-caribbean.com Taggen </t>
+  </si>
+  <si>
+    <t>ClimateCoating</t>
+  </si>
+  <si>
+    <t>Cookiemelding MV is niet correct</t>
+  </si>
+  <si>
+    <t>Nieuwe template voor portfolio</t>
+  </si>
+  <si>
+    <t>Klushulp</t>
+  </si>
+  <si>
+    <t>Top pagina's</t>
+  </si>
+  <si>
+    <t>Update website met SEO data</t>
+  </si>
+  <si>
+    <t>Routing nieuwe leden maken</t>
+  </si>
+  <si>
+    <t>Artikel Kijk op NH</t>
+  </si>
+  <si>
+    <t>Facebook groep</t>
+  </si>
+  <si>
+    <t>Teksten Chainels en website</t>
+  </si>
+  <si>
+    <t>VIDEO's ENERGIE 14/12/2023</t>
+  </si>
+  <si>
+    <t>Folder lid worden Boekelermeer</t>
+  </si>
+  <si>
+    <t>Communitymanagement Boekelermeer-App - 5 UUR</t>
+  </si>
+  <si>
+    <t>ONBOARDING SMM KLANTEN PROCES</t>
+  </si>
+  <si>
+    <t>CONTENT REALISATIE</t>
+  </si>
+  <si>
+    <t>SEA - accountverificatie</t>
+  </si>
+  <si>
+    <t>SneakerdisplayCOM</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-08-22)</t>
+  </si>
+  <si>
+    <t>Zoekwoordenonderzoek</t>
+  </si>
+  <si>
+    <t>Te laat.(2024-08-12)</t>
+  </si>
+  <si>
+    <t>CRO onderzoek webshop</t>
+  </si>
+  <si>
+    <t>E-MAIL OPSTELLEN - X UUR  16/09</t>
+  </si>
+  <si>
+    <t>AI updates - content</t>
+  </si>
+  <si>
+    <t>Social media templates voor CREO</t>
+  </si>
+  <si>
+    <t>Google bedrijfsprofiel optimaliseren</t>
+  </si>
+  <si>
+    <t>Monitoring en engagement</t>
+  </si>
+  <si>
+    <t>Opmaak social content</t>
+  </si>
+  <si>
+    <t>Nieuw personeel</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>BB Assurantie Service</t>
+  </si>
+  <si>
+    <t>Werking Elementor</t>
+  </si>
+  <si>
+    <t>CONTENTKALENDER</t>
+  </si>
+  <si>
+    <t>UPDATE WEBSITE RCALKMAAR.NL</t>
+  </si>
+  <si>
+    <t>WEBSITE ONDERHOUD</t>
+  </si>
+  <si>
+    <t>E-MAIL OPSTELLEN - X UUR - AFTER DEMOLITION DAY</t>
+  </si>
+  <si>
+    <t>SEO ONDERHOUD - 3 UUR / MAAND</t>
+  </si>
+  <si>
+    <t>OPBOUWEN SEO</t>
+  </si>
+  <si>
+    <t>SEA opbouwen</t>
+  </si>
+  <si>
+    <t>SEA plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEA - GOOGLE ADS - Conversiemeting repareren </t>
+  </si>
+  <si>
+    <t>CROSSMEDIALE STRATEGIE (NIEUW) - 3 UUR</t>
+  </si>
+  <si>
+    <t>SEA - GOOGLE ADS - account: 603-150-3069 &amp; 477-846-9072 - 8 UUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEA PVA </t>
+  </si>
+  <si>
+    <t>Conversie meting - GTM systematiek herzien</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEA - Server Side Tagging </t>
+  </si>
+  <si>
+    <t>SEA - GOOGLE ADS - MICROSOFT ADS</t>
+  </si>
+  <si>
+    <t>MERCHANT CENTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concurrentieanalyse - DGM </t>
+  </si>
+  <si>
+    <t>Exclusief bij Grootmeesters badge - 1 UUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatiseren DGM </t>
+  </si>
+  <si>
+    <t>Marketplaces testen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEA - GOOGLE ADS - account: 186-028-5198 Dagbudget €17 (voorheen €8,50) - 4 UUR </t>
+  </si>
+  <si>
+    <t>SEA - PMAX optimaliseren (onderhoud) - 1h</t>
+  </si>
+  <si>
+    <t>SEA - GOOGLE ADS - account: 894-940-0204 - dagbudget € 59,00/dag</t>
+  </si>
+  <si>
+    <t>MERCHANT CENTER (NEXT)</t>
+  </si>
+  <si>
+    <t>SEA - GOOGLE ADS - account: 926-505-2072 - 1 UUR</t>
+  </si>
+  <si>
+    <t>2024-09-22</t>
+  </si>
+  <si>
+    <t>E-commerce tracking Bookzo</t>
+  </si>
+  <si>
+    <t>SEA - GOOGLE ADS - account: | Dagbudget ...</t>
+  </si>
+  <si>
+    <t>SEA - REMARKETING optimaliseren (onderhoud) - 30m</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>SEA - GOOGLE ADS - account: 920-049-4172 - dagbudget: 6 per dag</t>
+  </si>
+  <si>
+    <t>SEA - SHOPPING optimaliseren (onderhoud) - 30 - 60m</t>
+  </si>
+  <si>
+    <t>SEA - BRANDED optimaliseren (onderhoud) - 30m</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>SEA - GOOGLE ADS - account: 555-719-1154 | Dagbudget 22,5</t>
+  </si>
+  <si>
+    <t>SEO - ANALYSE &amp; RAPPORTAGE - 2 UUR/MAAND</t>
+  </si>
+  <si>
+    <t>2024-09-28</t>
+  </si>
+  <si>
+    <t>SEO - ONDERHOUD - 2h per maand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICROSOFT ADS - 1 UUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEA - MONITORING HUIDIG - 3 UUR </t>
+  </si>
+  <si>
+    <t>SEA - GOOGLE ADS &amp; MICROSOFT ADS - account: 536-362-9376</t>
+  </si>
+  <si>
+    <t>De Gezonde Wereld</t>
+  </si>
+  <si>
+    <t>SEA - DGW - (4h)</t>
+  </si>
+  <si>
+    <t>Meeting uitschrijven en terugkoppelen</t>
+  </si>
+  <si>
+    <t>TOP Inspectie</t>
+  </si>
+  <si>
+    <t>SEA - GOOGLE ADS - account: | Dagbudget - 2 UUR</t>
+  </si>
+  <si>
+    <t>SEA werkzaamheden</t>
+  </si>
+  <si>
+    <t>SEA - OPBOUWEN - 6 tot 8 uur</t>
+  </si>
+  <si>
+    <t>SEA - GOOGLE ADS DIENSTONTWIKKELING</t>
+  </si>
+  <si>
+    <t>DUBBELE ACCOUNTS VERWIJDEREN</t>
+  </si>
+  <si>
+    <t>CANVA INRICHTEN</t>
+  </si>
+  <si>
     <t>PROFIEL OPBOUWEN - OPTIMALISATIE</t>
-  </si>
-  <si>
-    <t>Pinoccio</t>
-  </si>
-  <si>
-    <t>De Jong Reclame</t>
-  </si>
-  <si>
-    <t>Julia van Kalken</t>
-  </si>
-  <si>
-    <t>Techosol</t>
-  </si>
-  <si>
-    <t>Massage-O-Matic</t>
-  </si>
-  <si>
-    <t>Thijmen Buurs</t>
-  </si>
-  <si>
-    <t>AANGESLOTEN WINKELS EN BEDRIJVEN IN KAART</t>
-  </si>
-  <si>
-    <t>YoungSparks Social CAMPAGNE PROMOTIE</t>
-  </si>
-  <si>
-    <t>Ewout Vet</t>
-  </si>
-  <si>
-    <t>4. CONTENT SHOOT - AANLEVERING</t>
-  </si>
-  <si>
-    <t>5. CONTENT BEWERKING / CREATIE + INPLANNEN METRICOOL</t>
-  </si>
-  <si>
-    <t>8. MONITORING &amp; ENGAGEMENT + GROEISTRATEGIEËN TOEPASSEN</t>
-  </si>
-  <si>
-    <t>HUISSTIJL</t>
-  </si>
-  <si>
-    <t>Radisson Blu City Center</t>
-  </si>
-  <si>
-    <t>Leonie van der Park</t>
-  </si>
-  <si>
-    <t>2024-09-17</t>
-  </si>
-  <si>
-    <t>Social media templates voor CREO</t>
-  </si>
-  <si>
-    <t>SOCIAL MEDIA PLAN</t>
-  </si>
-  <si>
-    <t>SEA opbouwen</t>
-  </si>
-  <si>
-    <t>Steijn van Buuren</t>
-  </si>
-  <si>
-    <t>MAANDMEETING:  12 september - 13.30</t>
-  </si>
-  <si>
-    <t>LinkedIn ads buget verloopt</t>
-  </si>
-  <si>
-    <t>Uitzoeken koppelen Instagram aan Meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mailing golfmarkt - navraag nodig </t>
-  </si>
-  <si>
-    <t>ANALYSE &amp; RAPPORTAGE</t>
-  </si>
-  <si>
-    <t>2024-10-01</t>
-  </si>
-  <si>
-    <t>Afbeeldingen website</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-09-06)</t>
-  </si>
-  <si>
-    <t>OPBOUWEN NIEUWE BESTANDSTRUCTUUR</t>
-  </si>
-  <si>
-    <t>Metricool werkwijze aanpassing</t>
-  </si>
-  <si>
-    <t>Miel Tiebie</t>
-  </si>
-  <si>
-    <t>LEADINFO - HUBSPOT</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-09-11)</t>
-  </si>
-  <si>
-    <t>CONTENT - MIC en DRONE</t>
-  </si>
-  <si>
-    <t>Werkinstructie onboarding social media klant</t>
-  </si>
-  <si>
-    <t>KLANTLOGO'S OP WEBSITE</t>
-  </si>
-  <si>
-    <t>CONTENT - logo kleur en outline probleem</t>
-  </si>
-  <si>
-    <t>CONTENT - Huisstijl handboek en beeldmerk ontwikkeling YoungSparks</t>
-  </si>
-  <si>
-    <t>Jim Struikenkamp</t>
-  </si>
-  <si>
-    <t>ADMIN - Enquete maken voor offboarding klanten</t>
-  </si>
-  <si>
-    <t>AI - Klantspecifieke GPT</t>
-  </si>
-  <si>
-    <t>2024-09-30</t>
-  </si>
-  <si>
-    <t>Social Media bestanden ordenen | Social proces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEO - DIENSTONTWIKKELING </t>
-  </si>
-  <si>
-    <t>Tijn de Ruijter</t>
-  </si>
-  <si>
-    <t>Website YoungSparks - maandelijks 2 uur</t>
-  </si>
-  <si>
-    <t>AI - Teams automatisering - ON HOLD</t>
-  </si>
-  <si>
-    <t>Morris Nijland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI OVERZICHT - ON HOLD </t>
-  </si>
-  <si>
-    <t>Grootmeesters</t>
-  </si>
-  <si>
-    <t>Julia Klaver</t>
-  </si>
-  <si>
-    <t>Campagne SROI</t>
-  </si>
-  <si>
-    <t>ICT vanaf Morgen - IVM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. MEETING + OPTIMALISATIE </t>
-  </si>
-  <si>
-    <t>Social media strategie ACC</t>
-  </si>
-  <si>
-    <t>OFFBOARDING UITVOEREN</t>
-  </si>
-  <si>
-    <t>Radisson Blu Amsterdam Airport Schiphol</t>
-  </si>
-  <si>
-    <t>2024-09-13</t>
-  </si>
-  <si>
-    <t>Analysis &amp; reporting Juli 2023</t>
-  </si>
-  <si>
-    <t>Ubersuggest Agent whitelisten</t>
-  </si>
-  <si>
-    <t>Gripp - sales proces in kaart brengen</t>
-  </si>
-  <si>
-    <t>CONCURRENTEN EN MARKANALYSE</t>
-  </si>
-  <si>
-    <t>Website en social analyse</t>
-  </si>
-  <si>
-    <t>Nisaba</t>
-  </si>
-  <si>
-    <t>NIEUWSBRIEF</t>
-  </si>
-  <si>
-    <t>Kolping Boys</t>
-  </si>
-  <si>
-    <t>SHOOT 2</t>
-  </si>
-  <si>
-    <t>Werknavigator | Project NAN</t>
-  </si>
-  <si>
-    <t>Website aanpak Massage-O-Matic</t>
-  </si>
-  <si>
-    <t>CONCURRENTEN</t>
-  </si>
-  <si>
-    <t>DakCenter Witex</t>
-  </si>
-  <si>
-    <t>4. CONTENT SHOOT - AANLEVERING (DATUM)</t>
-  </si>
-  <si>
-    <t>PROCES &amp; WERKINSTRUCTIES</t>
-  </si>
-  <si>
-    <t>CONCURRENTEN EN MARKTANALYSE</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-09-09)</t>
-  </si>
-  <si>
-    <t>ONBOARDING KLANTEN ADMIN</t>
-  </si>
-  <si>
-    <t>Offerteformulier productpagina's</t>
-  </si>
-  <si>
-    <t>Website CRO UX/UI analyse</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>Rommers Real Estate</t>
-  </si>
-  <si>
-    <t>Branded video - Ads &amp; Socials</t>
-  </si>
-  <si>
-    <t>2024-09-26</t>
-  </si>
-  <si>
-    <t>TEMPLATES MAKEN</t>
-  </si>
-  <si>
-    <t>C.A. de Groot</t>
-  </si>
-  <si>
-    <t>2024-10-03</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>GROEISTRATEGIE UITDENKEN SMM</t>
-  </si>
-  <si>
-    <t>Brandmovie omvormen tot korte YouTube Short / Reels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mailmarketing - X UUR </t>
-  </si>
-  <si>
-    <t>Niedorp Sportcentrum</t>
-  </si>
-  <si>
-    <t>Bedrijvenvereniging Boekelermeer</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-09-05)</t>
-  </si>
-  <si>
-    <t>Mart Cabooter</t>
-  </si>
-  <si>
-    <t>6. CONTENT GOEDKEURING (METRICOOL)</t>
-  </si>
-  <si>
-    <t>2024-09-24</t>
-  </si>
-  <si>
-    <t>1. ANALYSE EN RAPPORTAGE - 1 UUR</t>
-  </si>
-  <si>
-    <t>2024-09-25</t>
-  </si>
-  <si>
-    <t>4. CONTENT SHOOT (25-09-2024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAANDMEETING </t>
-  </si>
-  <si>
-    <t>6. CONTENT INPLANNEN (METRICOOL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ympl omzetten naar Mailchimp </t>
-  </si>
-  <si>
-    <t>TEMPLATE CAMPAGNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBSITE VERBETERINGEN - 2 UUR </t>
-  </si>
-  <si>
-    <t>GolfJoy - Campagne uitdenken</t>
-  </si>
-  <si>
-    <t>Videowall - pagina en content maken</t>
-  </si>
-  <si>
-    <t>ONTWERP FYSIEKE FLYER - ICT v/h MKB - 2 UUR</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-09-04)</t>
-  </si>
-  <si>
-    <t>EMAIL - Campagne Easysignage - VISUALS - 1.5h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campagne Easypad </t>
-  </si>
-  <si>
-    <t>ONTWERP EMAIL HANDTEKENING (3) - 3 UUR</t>
-  </si>
-  <si>
-    <t>PRODUCTFOLDERS OMZETTEN</t>
-  </si>
-  <si>
-    <t>KLANTVERHAAL KENNEMER DUINCAMPING - 10 UUR</t>
-  </si>
-  <si>
-    <t>KLANTVERHAAL VONK HOORN (sept)</t>
-  </si>
-  <si>
-    <t>E-BOEKHOUDEN UREN VS VERKOCHTE UREN</t>
-  </si>
-  <si>
-    <t>ALG - OVERZICHT UREN + CONTACTGEGEVENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEBSITE ANALYSE - 4 UUR </t>
-  </si>
-  <si>
-    <t>NIEUWSBRIEF AANMELDING (OPTIE)</t>
-  </si>
-  <si>
-    <t>Analyse Leadinfo - klanten</t>
-  </si>
-  <si>
-    <t>OPTIMALISEREN LANDINGSPAGINA'S DE JONG - SIGN - 4 UUR</t>
-  </si>
-  <si>
-    <t>OFFBOARDEN</t>
-  </si>
-  <si>
-    <t>PHOENIX DESIGN</t>
-  </si>
-  <si>
-    <t>Blogs schrijven - SEO</t>
-  </si>
-  <si>
-    <t>Meta advertising opzetten 6 tot 8 uur</t>
-  </si>
-  <si>
-    <t>Leergeld Alkmaar</t>
-  </si>
-  <si>
-    <t>VRAGENLIJST + TOEGANG ACCOUNTS</t>
-  </si>
-  <si>
-    <t>1. ANALYSE &amp; RAPPORTAGE</t>
-  </si>
-  <si>
-    <t>PINTEREST</t>
-  </si>
-  <si>
-    <t>Fotoshoot website</t>
-  </si>
-  <si>
-    <t>Beschrijving update beleid Wordpress - 2 uur</t>
-  </si>
-  <si>
-    <t>E-MAILHANDTEKENING</t>
-  </si>
-  <si>
-    <t>DASHBOARD TAKEN PROJECT</t>
-  </si>
-  <si>
-    <t>Realisatie routing &amp; bucket rondom websites</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-09-02)</t>
-  </si>
-  <si>
-    <t>RALPH BELLEN: PLAN</t>
-  </si>
-  <si>
-    <t>2TH</t>
-  </si>
-  <si>
-    <t>Merchant Center</t>
-  </si>
-  <si>
-    <t>Reviews vertalen</t>
-  </si>
-  <si>
-    <t>Account Gehackt 2TH</t>
-  </si>
-  <si>
-    <t>Verkoopkanalen</t>
-  </si>
-  <si>
-    <t>CRO afrekenproces</t>
-  </si>
-  <si>
-    <t>Social template</t>
-  </si>
-  <si>
-    <t>Opmaak advertenties producten</t>
-  </si>
-  <si>
-    <t>SOCIAL MEDIA ADVERTISING</t>
-  </si>
-  <si>
-    <t>Naamplaatje.nl</t>
-  </si>
-  <si>
-    <t>Pilaster</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-09-03)</t>
-  </si>
-  <si>
-    <t>Websiteverbeteringen</t>
-  </si>
-  <si>
-    <t>AB-testen</t>
-  </si>
-  <si>
-    <t>GlucoSensor</t>
-  </si>
-  <si>
-    <t>Bezettingsgrraad</t>
-  </si>
-  <si>
-    <t>Goudkust</t>
-  </si>
-  <si>
-    <t>Review pagina</t>
-  </si>
-  <si>
-    <t>Campagne traject opbouwen en opstarten exclusief klantenvoordeel</t>
-  </si>
-  <si>
-    <t>Campagne en AI routing</t>
-  </si>
-  <si>
-    <t>Cookiebanner kosten verlagen (pagina's verminderen)</t>
-  </si>
-  <si>
-    <t>Opschonen MailChimp</t>
-  </si>
-  <si>
-    <t>Diapresentatie</t>
-  </si>
-  <si>
-    <t>Last Minute pagina</t>
-  </si>
-  <si>
-    <t>Meta Ads</t>
-  </si>
-  <si>
-    <t>Stickers voor de champagne</t>
-  </si>
-  <si>
-    <t>Beeldmateriaal website</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-08-23)</t>
-  </si>
-  <si>
-    <t>Onderzoek domein Euroline.nl</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-08-31)</t>
-  </si>
-  <si>
-    <t>Offerte template</t>
-  </si>
-  <si>
-    <t>BLOGS</t>
-  </si>
-  <si>
-    <t>SHOOT OP LOCATIE PAND HHW</t>
-  </si>
-  <si>
-    <t>WERK ROUTING</t>
-  </si>
-  <si>
-    <t>Routing en signing Euroline</t>
-  </si>
-  <si>
-    <t>Review systeem eindgebruikers</t>
-  </si>
-  <si>
-    <t>2024-11-01</t>
-  </si>
-  <si>
-    <t>NFC card voor Pieter</t>
-  </si>
-  <si>
-    <t>FAQ rariteiten</t>
-  </si>
-  <si>
-    <t>VVE beheer Amsterdam</t>
-  </si>
-  <si>
-    <t>Redirects overleg</t>
-  </si>
-  <si>
-    <t>Overstappen</t>
-  </si>
-  <si>
-    <t>Uitlegvideo's Twinq</t>
-  </si>
-  <si>
-    <t>Chatfunctie voor accountmanagers via MS365</t>
-  </si>
-  <si>
-    <t>Linkbuilding Appartement &amp; Eigenaar</t>
-  </si>
-  <si>
-    <t>RAPPORTAGE</t>
-  </si>
-  <si>
-    <t>Rommers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website </t>
-  </si>
-  <si>
-    <t>Update algemene voorwaarden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedIn STRATEGIE </t>
-  </si>
-  <si>
-    <t>Cookiebanner inrichten</t>
-  </si>
-  <si>
-    <t>Bedrijfswagenland</t>
-  </si>
-  <si>
-    <t>Offerte S5</t>
-  </si>
-  <si>
-    <t>Waerderpolder Haarlem</t>
-  </si>
-  <si>
-    <t>Contacten App</t>
-  </si>
-  <si>
-    <t>Huis van het Werk</t>
-  </si>
-  <si>
-    <t>Greenport NH</t>
-  </si>
-  <si>
-    <t>Energy &amp; Health Campus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brochure </t>
-  </si>
-  <si>
-    <t>Uitlegvideo mobiel</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>FAQ's toevoegen website</t>
-  </si>
-  <si>
-    <t>Tamara's Office Ondersteuning &amp; Secretariaten</t>
-  </si>
-  <si>
-    <t>De Noormannen</t>
-  </si>
-  <si>
-    <t>Bepalen welke FAQ's er standaard in een ContactenApp moeten komen te staan</t>
-  </si>
-  <si>
-    <t>Westrand</t>
-  </si>
-  <si>
-    <t>Webteksten maken</t>
-  </si>
-  <si>
-    <t>FAQ's tekstueel Dashboard Admin</t>
-  </si>
-  <si>
-    <t>FAQ's tekstueel App</t>
-  </si>
-  <si>
-    <t>Google account</t>
-  </si>
-  <si>
-    <t>BLV Overdie</t>
-  </si>
-  <si>
-    <t>Nieuwsbrief opbouwen en verzenden</t>
-  </si>
-  <si>
-    <t>2024-10-24</t>
-  </si>
-  <si>
-    <t>1. SEO - Quickscan: 0-meting</t>
-  </si>
-  <si>
-    <t>MEETINGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climatecoating-caribbean.com Taggen </t>
-  </si>
-  <si>
-    <t>ClimateCoating</t>
-  </si>
-  <si>
-    <t>Cookiemelding MV is niet correct</t>
-  </si>
-  <si>
-    <t>Nieuwe template voor portfolio</t>
-  </si>
-  <si>
-    <t>Klushulp</t>
-  </si>
-  <si>
-    <t>Top pagina's</t>
-  </si>
-  <si>
-    <t>Update website met SEO data</t>
-  </si>
-  <si>
-    <t>Update website met evenement</t>
-  </si>
-  <si>
-    <t>Artikel Kijk op NH</t>
-  </si>
-  <si>
-    <t>bedrijfsbezoek bij Plymovement</t>
-  </si>
-  <si>
-    <t>Facebook groep</t>
-  </si>
-  <si>
-    <t>Teksten Chainels en website</t>
-  </si>
-  <si>
-    <t>VIDEO's ENERGIE 14/12/2023</t>
-  </si>
-  <si>
-    <t>Folder lid worden Boekelermeer</t>
-  </si>
-  <si>
-    <t>Communitymanagement Boekelermeer-App - 5 UUR</t>
-  </si>
-  <si>
-    <t>ONBOARDING SMM KLANTEN PROCES</t>
-  </si>
-  <si>
-    <t>CONTENT REALISATIE</t>
-  </si>
-  <si>
-    <t>SEA - accountverificatie</t>
-  </si>
-  <si>
-    <t>SneakerdisplayCOM</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-08-22)</t>
-  </si>
-  <si>
-    <t>Zoekwoordenonderzoek</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-08-12)</t>
-  </si>
-  <si>
-    <t>CRO onderzoek webshop</t>
-  </si>
-  <si>
-    <t>PERSBERICHT</t>
-  </si>
-  <si>
-    <t>E-MAIL OPSTELLEN - X UUR  16/09</t>
-  </si>
-  <si>
-    <t>AI updates - content</t>
-  </si>
-  <si>
-    <t>Google bedrijfsprofiel optimaliseren</t>
-  </si>
-  <si>
-    <t>Monitoring en engagement</t>
-  </si>
-  <si>
-    <t>Opmaak social content</t>
-  </si>
-  <si>
-    <t>Nieuw personeel</t>
-  </si>
-  <si>
-    <t>2024-10-02</t>
-  </si>
-  <si>
-    <t>BB Assurantie Service</t>
-  </si>
-  <si>
-    <t>CONTENTKALENDER</t>
-  </si>
-  <si>
-    <t>UPDATE WEBSITE RCALKMAAR.NL</t>
-  </si>
-  <si>
-    <t>E-MAIL OPSTELLEN - X UUR - AFTER DEMOLITION DAY</t>
-  </si>
-  <si>
-    <t>SEO ONDERHOUD - 3 UUR / MAAND</t>
-  </si>
-  <si>
-    <t>OPBOUWEN SEO</t>
-  </si>
-  <si>
-    <t>SEA plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEA - GOOGLE ADS - Conversiemeting repareren </t>
-  </si>
-  <si>
-    <t>CROSSMEDIALE STRATEGIE (NIEUW) - 3 UUR</t>
-  </si>
-  <si>
-    <t>SEA - GOOGLE ADS - account: 603-150-3069 &amp; 477-846-9072 - 8 UUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEA PVA </t>
-  </si>
-  <si>
-    <t>Conversie meting - GTM systematiek herzien</t>
-  </si>
-  <si>
-    <t>2024-10-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEA - Server Side Tagging </t>
-  </si>
-  <si>
-    <t>SEA - GOOGLE ADS - MICROSOFT ADS</t>
-  </si>
-  <si>
-    <t>MERCHANT CENTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concurrentieanalyse - DGM </t>
-  </si>
-  <si>
-    <t>Exclusief bij Grootmeesters badge - 1 UUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatiseren DGM </t>
-  </si>
-  <si>
-    <t>Marketplaces testen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEA - GOOGLE ADS - account: 186-028-5198 Dagbudget €17 (voorheen €8,50) - 4 UUR </t>
-  </si>
-  <si>
-    <t>SEA - PMAX optimaliseren (onderhoud) - 1h</t>
-  </si>
-  <si>
-    <t>SEA - GOOGLE ADS - account: 894-940-0204 - dagbudget € 59,00/dag</t>
-  </si>
-  <si>
-    <t>MERCHANT CENTER (NEXT)</t>
-  </si>
-  <si>
-    <t>SEA - GOOGLE ADS - account: 926-505-2072 - 1 UUR</t>
-  </si>
-  <si>
-    <t>2024-09-22</t>
-  </si>
-  <si>
-    <t>E-commerce tracking Bookzo</t>
-  </si>
-  <si>
-    <t>SEA - GOOGLE ADS - account: | Dagbudget ...</t>
-  </si>
-  <si>
-    <t>SEA - REMARKETING optimaliseren (onderhoud) - 30m</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>SEA - GOOGLE ADS - account: 920-049-4172 - dagbudget: 6 per dag</t>
-  </si>
-  <si>
-    <t>SEA - SHOPPING optimaliseren (onderhoud) - 30 - 60m</t>
-  </si>
-  <si>
-    <t>SEA - BRANDED optimaliseren (onderhoud) - 30m</t>
-  </si>
-  <si>
-    <t>SST</t>
-  </si>
-  <si>
-    <t>SEA - GOOGLE ADS - account: 555-719-1154 | Dagbudget 22,5</t>
-  </si>
-  <si>
-    <t>SEO - ANALYSE &amp; RAPPORTAGE - 2 UUR/MAAND</t>
-  </si>
-  <si>
-    <t>2024-09-28</t>
-  </si>
-  <si>
-    <t>SEO - ONDERHOUD - 2h per maand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICROSOFT ADS - 1 UUR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEA - MONITORING HUIDIG - 3 UUR </t>
-  </si>
-  <si>
-    <t>SEA - GOOGLE ADS &amp; MICROSOFT ADS - account: 536-362-9376</t>
-  </si>
-  <si>
-    <t>De Gezonde Wereld</t>
-  </si>
-  <si>
-    <t>SEA - DGW - (4h)</t>
-  </si>
-  <si>
-    <t>Meeting uitschrijven en terugkoppelen</t>
-  </si>
-  <si>
-    <t>TOP Inspectie</t>
-  </si>
-  <si>
-    <t>SEA - GOOGLE ADS - account: | Dagbudget - 2 UUR</t>
-  </si>
-  <si>
-    <t>SEA werkzaamheden</t>
-  </si>
-  <si>
-    <t>SEA - OPBOUWEN - 6 tot 8 uur</t>
-  </si>
-  <si>
-    <t>SEA - GOOGLE ADS DIENSTONTWIKKELING</t>
-  </si>
-  <si>
-    <t>DUBBELE ACCOUNTS VERWIJDEREN</t>
-  </si>
-  <si>
-    <t>Te laat.(2024-08-29)</t>
   </si>
   <si>
     <t>SEO - ANALYSE &amp; RAPPORTAGE - 2 uur / maand</t>
@@ -1426,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1434,13 +1422,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1448,13 +1436,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1462,13 +1450,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1476,13 +1464,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -1493,13 +1481,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1507,13 +1495,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1521,13 +1509,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1541,7 +1529,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1555,7 +1543,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1577,16 +1565,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1594,10 +1582,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1606,52 +1594,52 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1659,61 +1647,61 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1722,35 +1710,35 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1759,391 +1747,391 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -2154,13 +2142,13 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -2168,16 +2156,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -2185,812 +2173,770 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B49" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="D57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B62" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B70" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>246</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C82" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="E90" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B92" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="D92" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C93" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="D93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="E94" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
-        <v>134</v>
-      </c>
-      <c r="B96" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" t="s">
-        <v>51</v>
-      </c>
-      <c r="D96" t="s">
-        <v>86</v>
-      </c>
-      <c r="E96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F96" t="s">
-        <v>66</v>
-      </c>
-      <c r="G96" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>268</v>
-      </c>
-      <c r="B97" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>269</v>
-      </c>
-      <c r="B98" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +2947,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3023,27 +2969,27 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -3052,32 +2998,32 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -3086,13 +3032,33 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3069,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3125,7 +3091,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3134,9 +3100,6 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3162,7 +3125,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -3176,13 +3139,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -3191,7 +3154,7 @@
         <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -3205,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -3219,7 +3182,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -3227,13 +3190,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -3247,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -3269,7 +3232,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -3283,13 +3246,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
@@ -3300,13 +3263,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -3317,16 +3280,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -3334,22 +3297,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3357,30 +3320,30 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -3388,13 +3351,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -3402,13 +3365,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -3416,13 +3379,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -3430,16 +3393,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -3450,13 +3413,13 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -3464,16 +3427,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -3484,27 +3447,27 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -3515,10 +3478,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -3529,10 +3492,10 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -3546,7 +3509,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
@@ -3560,7 +3523,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -3569,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3577,13 +3540,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -3594,7 +3557,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -3608,10 +3571,10 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
@@ -3619,10 +3582,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s">
         <v>51</v>
@@ -3636,10 +3599,10 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -3647,13 +3610,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -3664,7 +3627,7 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -3675,13 +3638,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -3689,13 +3652,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -3703,16 +3666,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -3723,10 +3686,10 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -3734,16 +3697,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -3751,13 +3714,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -3765,46 +3728,60 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3816,7 +3793,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3838,13 +3815,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
@@ -3852,7 +3829,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3861,7 +3838,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
@@ -3869,30 +3846,27 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
@@ -3900,7 +3874,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -3914,13 +3888,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -3929,7 +3903,7 @@
         <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -3937,13 +3911,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
@@ -3951,13 +3925,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
@@ -3965,13 +3939,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
@@ -3979,13 +3953,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -3993,10 +3967,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -4005,15 +3979,15 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -4022,35 +3996,35 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
@@ -4058,10 +4032,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -4072,10 +4046,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -4084,38 +4058,44 @@
         <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
@@ -4123,13 +4103,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
@@ -4137,10 +4117,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -4151,13 +4131,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -4165,13 +4145,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -4179,13 +4159,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
         <v>55</v>
@@ -4193,44 +4173,44 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>55</v>
@@ -4238,13 +4218,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
@@ -4252,356 +4232,356 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
         <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
         <v>55</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>303</v>
       </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" t="s">
         <v>27</v>
       </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>304</v>
-      </c>
-      <c r="B34" t="s">
-        <v>221</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>304</v>
-      </c>
-      <c r="B35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>305</v>
       </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="B42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>306</v>
       </c>
-      <c r="B36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
         <v>307</v>
       </c>
-      <c r="B37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>308</v>
       </c>
-      <c r="B39" t="s">
-        <v>246</v>
-      </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>309</v>
       </c>
-      <c r="B40" t="s">
-        <v>246</v>
-      </c>
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>310</v>
       </c>
-      <c r="B41" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>291</v>
-      </c>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>311</v>
       </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="s">
-        <v>312</v>
-      </c>
-      <c r="D43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>313</v>
-      </c>
-      <c r="B44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>314</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>315</v>
-      </c>
-      <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>316</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>95</v>
-      </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>317</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>55</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
         <v>55</v>
@@ -4609,13 +4589,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -4623,13 +4603,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
@@ -4637,81 +4617,81 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
         <v>55</v>
-      </c>
-      <c r="E55" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
         <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>85</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
         <v>55</v>
@@ -4719,15 +4699,46 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>148</v>
       </c>
       <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>318</v>
+      </c>
+      <c r="B61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>319</v>
+      </c>
+      <c r="B62" t="s">
         <v>25</v>
       </c>
-      <c r="C60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4739,7 +4750,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4761,188 +4772,216 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4975,7 +5014,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -4984,7 +5023,7 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>55</v>
@@ -4992,7 +5031,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -5001,12 +5040,12 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -5015,21 +5054,21 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
@@ -5037,7 +5076,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -5046,97 +5085,97 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
-      </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
@@ -5147,30 +5186,30 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -5178,16 +5217,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -5201,7 +5240,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5299,10 +5338,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -5313,13 +5352,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -5338,22 +5377,22 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5369,39 +5408,39 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5409,7 +5448,7 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -5417,13 +5456,16 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -5431,16 +5473,13 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -5454,7 +5493,7 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -5468,7 +5507,7 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -5482,43 +5521,29 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5558,7 +5583,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5580,7 +5605,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -5589,7 +5614,7 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5603,10 +5628,7 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5617,695 +5639,695 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
         <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
         <v>105</v>
       </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6313,30 +6335,27 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6344,61 +6363,16 @@
         <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6409,7 +6383,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6431,89 +6405,103 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
         <v>118</v>
       </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6524,7 +6512,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6546,22 +6534,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6569,13 +6557,13 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6583,16 +6571,16 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6600,84 +6588,84 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6685,16 +6673,16 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6702,7 +6690,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -6711,7 +6699,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6719,7 +6707,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -6728,66 +6716,77 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6820,70 +6819,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6891,13 +6890,13 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -6905,44 +6904,44 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
         <v>126</v>
       </c>
-      <c r="C8" t="s">
-        <v>130</v>
-      </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6950,27 +6949,27 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6978,64 +6977,64 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
         <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7043,13 +7042,13 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7057,13 +7056,13 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -7074,7 +7073,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7096,7 +7095,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7110,27 +7109,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -7138,36 +7146,30 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -7175,13 +7177,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -7189,44 +7191,47 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
@@ -7234,89 +7239,98 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
@@ -7324,30 +7338,33 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" t="s">
-        <v>8</v>
+      <c r="F17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
@@ -7355,27 +7372,30 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
@@ -7383,19 +7403,16 @@
       <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -7403,33 +7420,30 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>50</v>
       </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
@@ -7437,126 +7451,33 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
+      <c r="E25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -7567,7 +7488,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7576,7 +7497,7 @@
     <col min="1" max="3" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7587,49 +7508,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/frontend/taken.xlsx
+++ b/frontend/taken.xlsx
@@ -11,41 +11,45 @@
     <sheet name="Amber Schouten" sheetId="2" r:id="rId2"/>
     <sheet name="Daan Bakker" sheetId="3" r:id="rId3"/>
     <sheet name="Ewout Vet" sheetId="4" r:id="rId4"/>
-    <sheet name="Jim Struikenkamp" sheetId="5" r:id="rId5"/>
-    <sheet name="Julia van Kalken" sheetId="6" r:id="rId6"/>
-    <sheet name="Julia Klaver" sheetId="7" r:id="rId7"/>
-    <sheet name="Leonie van der Park" sheetId="8" r:id="rId8"/>
-    <sheet name="Mart Cabooter" sheetId="9" r:id="rId9"/>
-    <sheet name="Miel Tiebie" sheetId="10" r:id="rId10"/>
-    <sheet name="Morris Nijland" sheetId="11" r:id="rId11"/>
-    <sheet name="Sharon Swart" sheetId="12" r:id="rId12"/>
-    <sheet name="Steijn van Buuren" sheetId="13" r:id="rId13"/>
-    <sheet name="Thijmen Buurs" sheetId="14" r:id="rId14"/>
-    <sheet name="Tijn de Ruijter" sheetId="15" r:id="rId15"/>
+    <sheet name="Jake Wittebrood" sheetId="5" r:id="rId5"/>
+    <sheet name="Jim Struikenkamp" sheetId="6" r:id="rId6"/>
+    <sheet name="Jolie Sekeris" sheetId="7" r:id="rId7"/>
+    <sheet name="Julia van Kalken" sheetId="8" r:id="rId8"/>
+    <sheet name="Julia Klaver" sheetId="9" r:id="rId9"/>
+    <sheet name="Leonie van der Park" sheetId="10" r:id="rId10"/>
+    <sheet name="Mart Cabooter" sheetId="11" r:id="rId11"/>
+    <sheet name="Miel Tiebie" sheetId="12" r:id="rId12"/>
+    <sheet name="Morris Nijland" sheetId="13" r:id="rId13"/>
+    <sheet name="Sharon Swart" sheetId="14" r:id="rId14"/>
+    <sheet name="Steijn van Buuren" sheetId="15" r:id="rId15"/>
+    <sheet name="Thijmen Buurs" sheetId="16" r:id="rId16"/>
+    <sheet name="Tijn de Ruijter" sheetId="17" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Alec van der Schuit'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Amber Schouten'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daan Bakker'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ewout Vet'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Jim Struikenkamp'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Julia Klaver'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Julia van Kalken'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Leonie van der Park'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Mart Cabooter'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Miel Tiebie'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Morris Nijland'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Sharon Swart'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Steijn van Buuren'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Thijmen Buurs'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Tijn de Ruijter'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Jake Wittebrood'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Jim Struikenkamp'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Jolie Sekeris'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Julia Klaver'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Julia van Kalken'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Leonie van der Park'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Mart Cabooter'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Miel Tiebie'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Morris Nijland'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Sharon Swart'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Steijn van Buuren'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Thijmen Buurs'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Tijn de Ruijter'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="365">
   <si>
     <t>Naam van taak.</t>
   </si>
@@ -1665,6 +1669,510 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3203,7 +3711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -3331,7 +3839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
@@ -4179,7 +4687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G70"/>
   <sheetViews>
@@ -5263,7 +5771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -5530,7 +6038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -6971,6 +7479,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7222,7 +7758,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -7540,7 +8104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -7909,508 +8473,4 @@
   <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="32.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="32.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>